--- a/semestr_1/Информатика/Лабораторные работы/Артемов А.Е./Лабораторная работа №1/Лабораторная работа №1.xlsx
+++ b/semestr_1/Информатика/Лабораторные работы/Артемов А.Е./Лабораторная работа №1/Лабораторная работа №1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,84 +22,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">№ п/п</t>
+    <t>№ п/п</t>
   </si>
   <si>
-    <t xml:space="preserve">Наименование товара</t>
+    <t>Наименование товара</t>
   </si>
   <si>
-    <t xml:space="preserve">Цена за ед.</t>
+    <t>Цена за ед.</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество</t>
+    <t>Количество</t>
   </si>
   <si>
-    <t xml:space="preserve">Стоимость</t>
+    <t>Стоимость</t>
   </si>
   <si>
-    <t xml:space="preserve">Мишка плюшевый</t>
+    <t>Мишка плюшевый</t>
   </si>
   <si>
-    <t xml:space="preserve">Гусь пластмассовый</t>
+    <t>Гусь пластмассовый</t>
   </si>
   <si>
-    <t xml:space="preserve">Чебурашка меховой</t>
+    <t>Чебурашка меховой</t>
   </si>
   <si>
-    <t xml:space="preserve">Игра настольная "Монополия"</t>
+    <t>Игра настольная "Монополия"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -125,80 +101,53 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -257,31 +206,484 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Мишка плюшевый</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Гусь пластмассовый</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Чебурашка меховой</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Игра настольная "Монополия"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="39228160"/>
+        <c:axId val="39229696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39228160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39229696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39229696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39228160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -298,118 +700,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>150</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <f aca="false">C2*D2</f>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
         <v>750</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>120</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <f aca="false">C3*D3</f>
+      <c r="E3" s="3">
+        <f>C3*D3</f>
         <v>480</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>300</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <f aca="false">C4*D4</f>
+      <c r="E4" s="3">
+        <f>C4*D4</f>
         <v>600</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>250</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <f aca="false">C5*D5</f>
+      <c r="E5" s="3">
+        <f>C5*D5</f>
         <v>250</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5" t="n">
-        <f aca="false">SUM(E2:E5)</f>
+      <c r="E6" s="5">
+        <f>SUM(E2:E5)</f>
         <v>2080</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>